--- a/2018/CRM/BA_Checklist/SOF.QP.04.M05_BAChecklistERP_CRMF2080_Ver3.xlsx
+++ b/2018/CRM/BA_Checklist/SOF.QP.04.M05_BAChecklistERP_CRMF2080_Ver3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.CRM\1_Tài liệu phân tích_Yêu cầu\BA_Checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.CRM\1_Tai lieu phan tich_Yeu cau\BA_Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="653" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="653" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Bắt buộc" sheetId="5" r:id="rId1"/>
@@ -1047,24 +1047,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1115,6 +1097,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1289,7 +1289,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1341,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1389,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1441,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1507,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1559,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1625,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1677,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1743,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1795,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1861,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1913,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,16 +2283,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -2301,28 +2301,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -2391,94 +2391,94 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="43" t="s">
+      <c r="H10" s="59"/>
+      <c r="I10" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="43" t="s">
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="43" t="s">
+      <c r="M10" s="61"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="43" t="s">
+      <c r="P10" s="61"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="44"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="43" t="s">
+      <c r="S10" s="61"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="44"/>
-      <c r="W10" s="45"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="62"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="B11" s="60"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="46" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="46" t="s">
+      <c r="H11" s="64"/>
+      <c r="I11" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="46" t="s">
+      <c r="J11" s="65"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="46" t="s">
+      <c r="M11" s="65"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="46" t="s">
+      <c r="P11" s="65"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="S11" s="48"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="46" t="s">
+      <c r="S11" s="65"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="V11" s="48"/>
-      <c r="W11" s="47"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="64"/>
     </row>
     <row r="12" spans="1:23" ht="28.5">
       <c r="A12" s="6"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="43" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="18" t="s">
@@ -2568,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="50"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="18" t="s">
         <v>85</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="51"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="19" t="s">
         <v>81</v>
       </c>
@@ -3454,6 +3454,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="B1:D3"/>
     <mergeCell ref="E1:I3"/>
@@ -3464,16 +3474,6 @@
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
   </mergeCells>
   <conditionalFormatting sqref="G13:G43 I13:J43 L13:M43 O13:P43 R13:S43 U13:V43">
     <cfRule type="expression" dxfId="21" priority="4">
@@ -3514,7 +3514,7 @@
   </sheetPr>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="D17" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -3542,16 +3542,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -3560,28 +3560,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -3670,95 +3670,95 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="43" t="s">
+      <c r="H12" s="59"/>
+      <c r="I12" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="43" t="s">
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="43" t="s">
+      <c r="M12" s="61"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="43" t="s">
+      <c r="P12" s="61"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="44"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="43" t="s">
+      <c r="S12" s="61"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="44"/>
-      <c r="W12" s="45"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="62"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="B13" s="60"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="46" t="str">
+      <c r="B13" s="54"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="63" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="46" t="s">
+      <c r="H13" s="64"/>
+      <c r="I13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="46" t="s">
+      <c r="J13" s="65"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="48"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="46" t="s">
+      <c r="M13" s="65"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="46" t="s">
+      <c r="P13" s="65"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="48"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="46" t="s">
+      <c r="S13" s="65"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="V13" s="48"/>
-      <c r="W13" s="47"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="64"/>
     </row>
     <row r="14" spans="1:23" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -4783,6 +4783,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="D16:D23"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="O12:Q12"/>
@@ -4794,15 +4803,6 @@
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="R13:T13"/>
     <mergeCell ref="U13:W13"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="C12:C14"/>
   </mergeCells>
   <conditionalFormatting sqref="I15:J43 L15:M43 O15:P43 R15:S43 U15:V43 G15:G43">
     <cfRule type="expression" dxfId="17" priority="4">
@@ -4872,16 +4872,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -4890,28 +4890,28 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -5000,89 +5000,89 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="43" t="s">
+      <c r="H12" s="59"/>
+      <c r="I12" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="43" t="s">
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="44"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="43" t="s">
+      <c r="O12" s="61"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="44"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="43" t="s">
+      <c r="R12" s="61"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="44"/>
-      <c r="V12" s="45"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="62"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="60"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="46" t="str">
+      <c r="B13" s="54"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="63" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="46" t="s">
+      <c r="H13" s="64"/>
+      <c r="I13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="46" t="s">
+      <c r="J13" s="65"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="46" t="s">
+      <c r="O13" s="65"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="48"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="46" t="s">
+      <c r="R13" s="65"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="48"/>
-      <c r="V13" s="47"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="64"/>
     </row>
     <row r="14" spans="1:22" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -6111,14 +6111,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="C12:C14"/>
     <mergeCell ref="T12:V12"/>
     <mergeCell ref="T13:V13"/>
     <mergeCell ref="N12:P12"/>
@@ -6131,6 +6123,14 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="C12:C14"/>
   </mergeCells>
   <conditionalFormatting sqref="G15:G45 I15:J45 N15:O45 Q15:R45 T15:U45 L15:L48">
     <cfRule type="expression" dxfId="14" priority="15">
@@ -6171,7 +6171,7 @@
   </sheetPr>
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B13" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B13" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -6199,16 +6199,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -6217,28 +6217,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -6327,95 +6327,95 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="43" t="s">
+      <c r="H12" s="59"/>
+      <c r="I12" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="43" t="s">
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="43" t="s">
+      <c r="M12" s="61"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="43" t="s">
+      <c r="P12" s="61"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="44"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="43" t="s">
+      <c r="S12" s="61"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="44"/>
-      <c r="W12" s="45"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="62"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="B13" s="60"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="46" t="str">
+      <c r="B13" s="54"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="63" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="46" t="s">
+      <c r="H13" s="64"/>
+      <c r="I13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="46" t="s">
+      <c r="J13" s="65"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="48"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="46" t="s">
+      <c r="M13" s="65"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="46" t="s">
+      <c r="P13" s="65"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="48"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="46" t="s">
+      <c r="S13" s="65"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="V13" s="48"/>
-      <c r="W13" s="47"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="64"/>
     </row>
     <row r="14" spans="1:23" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -7558,6 +7558,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="U12:W12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
@@ -7568,21 +7583,6 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="R12:T12"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="I15:J48 L15:M48 O15:P48 R15:S48 U15:V48 G15:G48">
     <cfRule type="expression" dxfId="10" priority="4">
@@ -7652,16 +7652,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -7670,28 +7670,28 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -7780,89 +7780,89 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="43" t="s">
+      <c r="H12" s="59"/>
+      <c r="I12" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="43" t="s">
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="44"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="43" t="s">
+      <c r="O12" s="61"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="44"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="43" t="s">
+      <c r="R12" s="61"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="44"/>
-      <c r="V12" s="45"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="62"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="60"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="46" t="str">
+      <c r="B13" s="54"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="63" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="46" t="s">
+      <c r="H13" s="64"/>
+      <c r="I13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="46" t="s">
+      <c r="J13" s="65"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="46" t="s">
+      <c r="O13" s="65"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="48"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="46" t="s">
+      <c r="R13" s="65"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="48"/>
-      <c r="V13" s="47"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="64"/>
     </row>
     <row r="14" spans="1:22" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -8788,15 +8788,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="Q12:S12"/>
@@ -8807,6 +8798,15 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="T13:V13"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <conditionalFormatting sqref="G15:G45 I15:J45 N15:O45 Q15:R45 T15:U45 L15:L48">
     <cfRule type="expression" dxfId="7" priority="4">
@@ -8848,7 +8848,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8874,15 +8874,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
       <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
@@ -8891,26 +8891,26 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
       <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
@@ -8994,89 +8994,89 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="43" t="s">
+      <c r="G12" s="59"/>
+      <c r="H12" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="43" t="s">
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="43" t="s">
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="44"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="43" t="s">
+      <c r="O12" s="61"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="44"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="43" t="s">
+      <c r="R12" s="61"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="44"/>
-      <c r="V12" s="45"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="62"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="46" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="46" t="s">
+      <c r="G13" s="64"/>
+      <c r="H13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="46" t="s">
+      <c r="I13" s="65"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="46" t="s">
+      <c r="L13" s="65"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="46" t="s">
+      <c r="O13" s="65"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="48"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="46" t="s">
+      <c r="R13" s="65"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="48"/>
-      <c r="V13" s="47"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="64"/>
     </row>
     <row r="14" spans="1:22" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
@@ -9133,7 +9133,7 @@
       <c r="B15" s="9">
         <v>1</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="43" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -9164,7 +9164,7 @@
       <c r="B16" s="9">
         <v>2</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="11" t="s">
         <v>65</v>
       </c>
@@ -9193,7 +9193,7 @@
       <c r="B17" s="9">
         <v>3</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="13" t="s">
         <v>75</v>
       </c>
@@ -9222,7 +9222,7 @@
       <c r="B18" s="9">
         <v>4</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="13" t="s">
         <v>76</v>
       </c>
@@ -9251,7 +9251,7 @@
       <c r="B19" s="9">
         <v>5</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="11" t="s">
         <v>91</v>
       </c>
@@ -9280,7 +9280,7 @@
       <c r="B20" s="9">
         <v>6</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="13" t="s">
         <v>92</v>
       </c>
@@ -9309,7 +9309,7 @@
       <c r="B21" s="9">
         <v>7</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="13" t="s">
         <v>93</v>
       </c>
@@ -10033,6 +10033,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:H3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="Q12:S12"/>
@@ -10043,15 +10052,6 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:H3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <conditionalFormatting sqref="F15:F45 H15:I45 K15:L45 N15:O45 Q15:R45 T15:U45">
     <cfRule type="expression" dxfId="3" priority="4">

--- a/2018/CRM/BA_Checklist/SOF.QP.04.M05_BAChecklistERP_CRMF2080_Ver3.xlsx
+++ b/2018/CRM/BA_Checklist/SOF.QP.04.M05_BAChecklistERP_CRMF2080_Ver3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="653" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="653" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Bắt buộc" sheetId="5" r:id="rId1"/>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="118">
   <si>
     <t>STT</t>
   </si>
@@ -644,17 +644,7 @@
     <t>OK</t>
   </si>
   <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>Bảng CRMT20801, CRMT20801_CRMT10101_REL : APK không phải khoá chính.
-Vì 2 bảng này đã được tạo sẵn nên không dám chính sửa</t>
-  </si>
-  <si>
     <t>Unnecessary</t>
-  </si>
-  <si>
-    <t>Table không có khoá ngoại</t>
   </si>
 </sst>
 </file>
@@ -1047,6 +1037,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1097,24 +1105,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1289,7 +1279,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1331,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1379,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1431,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1497,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1549,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1615,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1667,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1733,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1785,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1851,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1903,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2245,7 @@
       <pane xSplit="5" ySplit="12" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2283,16 +2273,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -2301,28 +2291,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -2391,94 +2381,94 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60" t="s">
+      <c r="H10" s="65"/>
+      <c r="I10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="60" t="s">
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="61"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="60" t="s">
+      <c r="M10" s="44"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="60" t="s">
+      <c r="P10" s="44"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="61"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="60" t="s">
+      <c r="S10" s="44"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="61"/>
-      <c r="W10" s="62"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="45"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="B11" s="54"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="63" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="63" t="s">
+      <c r="H11" s="47"/>
+      <c r="I11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="63" t="s">
+      <c r="J11" s="48"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="65"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="63" t="s">
+      <c r="M11" s="48"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="63" t="s">
+      <c r="P11" s="48"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S11" s="65"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="63" t="s">
+      <c r="S11" s="48"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="V11" s="65"/>
-      <c r="W11" s="64"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="47"/>
     </row>
     <row r="12" spans="1:23" ht="28.5">
       <c r="A12" s="6"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2536,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="18" t="s">
@@ -2568,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="44"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="18" t="s">
         <v>85</v>
       </c>
@@ -2598,12 +2588,14 @@
         <v>3</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="45"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="19" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -3454,6 +3446,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="R10:T10"/>
@@ -3464,16 +3466,6 @@
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="U11:W11"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="G13:G43 I13:J43 L13:M43 O13:P43 R13:S43 U13:V43">
     <cfRule type="expression" dxfId="21" priority="4">
@@ -3514,8 +3506,8 @@
   </sheetPr>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D17" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3542,16 +3534,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -3560,28 +3552,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -3670,95 +3662,95 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60" t="s">
+      <c r="H12" s="65"/>
+      <c r="I12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="60" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="60" t="s">
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="60" t="s">
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="60" t="s">
+      <c r="S12" s="44"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="45"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="B13" s="54"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="63" t="str">
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="46" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="63" t="s">
+      <c r="J13" s="48"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="65"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="63" t="s">
+      <c r="M13" s="48"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="63" t="s">
+      <c r="P13" s="48"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="65"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="63" t="s">
+      <c r="S13" s="48"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="V13" s="65"/>
-      <c r="W13" s="64"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="47"/>
     </row>
     <row r="14" spans="1:23" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -4271,7 +4263,7 @@
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
     </row>
-    <row r="29" spans="2:23" ht="105">
+    <row r="29" spans="2:23">
       <c r="B29" s="9">
         <v>15</v>
       </c>
@@ -4288,9 +4280,7 @@
       <c r="G29" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>118</v>
-      </c>
+      <c r="H29" s="13"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -4390,7 +4380,7 @@
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -4458,11 +4448,9 @@
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>120</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
@@ -4783,15 +4771,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="C12:C14"/>
     <mergeCell ref="D16:D23"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="O12:Q12"/>
@@ -4803,6 +4782,15 @@
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="R13:T13"/>
     <mergeCell ref="U13:W13"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C12:C14"/>
   </mergeCells>
   <conditionalFormatting sqref="I15:J43 L15:M43 O15:P43 R15:S43 U15:V43 G15:G43">
     <cfRule type="expression" dxfId="17" priority="4">
@@ -4872,16 +4860,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -4890,28 +4878,28 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -5000,89 +4988,89 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60" t="s">
+      <c r="H12" s="65"/>
+      <c r="I12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="60" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="60" t="s">
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="60" t="s">
+      <c r="R12" s="44"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="62"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="45"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="54"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="63" t="str">
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="46" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="63" t="s">
+      <c r="J13" s="48"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="63" t="s">
+      <c r="O13" s="48"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="65"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="63" t="s">
+      <c r="R13" s="48"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="65"/>
-      <c r="V13" s="64"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="47"/>
     </row>
     <row r="14" spans="1:22" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -5335,7 +5323,7 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -5368,7 +5356,7 @@
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -5434,7 +5422,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -5467,7 +5455,7 @@
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -5500,7 +5488,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -5533,7 +5521,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -5566,7 +5554,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -6111,6 +6099,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="T12:V12"/>
     <mergeCell ref="T13:V13"/>
     <mergeCell ref="N12:P12"/>
@@ -6123,14 +6119,6 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="C12:C14"/>
   </mergeCells>
   <conditionalFormatting sqref="G15:G45 I15:J45 N15:O45 Q15:R45 T15:U45 L15:L48">
     <cfRule type="expression" dxfId="14" priority="15">
@@ -6171,7 +6159,7 @@
   </sheetPr>
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B13" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B13" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -6199,16 +6187,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -6217,28 +6205,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -6327,95 +6315,95 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60" t="s">
+      <c r="H12" s="65"/>
+      <c r="I12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="60" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="60" t="s">
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="60" t="s">
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="60" t="s">
+      <c r="S12" s="44"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="45"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="B13" s="54"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="63" t="str">
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="46" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="63" t="s">
+      <c r="J13" s="48"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="65"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="63" t="s">
+      <c r="M13" s="48"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="63" t="s">
+      <c r="P13" s="48"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="65"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="63" t="s">
+      <c r="S13" s="48"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="V13" s="65"/>
-      <c r="W13" s="64"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="47"/>
     </row>
     <row r="14" spans="1:23" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -7007,7 +6995,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -7558,21 +7546,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="C12:C14"/>
     <mergeCell ref="U12:W12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
@@ -7583,6 +7556,21 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="R12:T12"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="I15:J48 L15:M48 O15:P48 R15:S48 U15:V48 G15:G48">
     <cfRule type="expression" dxfId="10" priority="4">
@@ -7652,16 +7640,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -7670,28 +7658,28 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -7780,89 +7768,89 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60" t="s">
+      <c r="H12" s="65"/>
+      <c r="I12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="60" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="60" t="s">
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="60" t="s">
+      <c r="R12" s="44"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="62"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="45"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="54"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="63" t="str">
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="46" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="63" t="s">
+      <c r="J13" s="48"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="63" t="s">
+      <c r="O13" s="48"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="65"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="63" t="s">
+      <c r="R13" s="48"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="65"/>
-      <c r="V13" s="64"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="47"/>
     </row>
     <row r="14" spans="1:22" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -8788,6 +8776,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="Q12:S12"/>
@@ -8798,15 +8795,6 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="T13:V13"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <conditionalFormatting sqref="G15:G45 I15:J45 N15:O45 Q15:R45 T15:U45 L15:L48">
     <cfRule type="expression" dxfId="7" priority="4">
@@ -8847,7 +8835,7 @@
   </sheetPr>
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -8874,15 +8862,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
@@ -8891,26 +8879,26 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
@@ -8994,89 +8982,89 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60" t="s">
+      <c r="G12" s="65"/>
+      <c r="H12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="60" t="s">
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="60" t="s">
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="60" t="s">
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="60" t="s">
+      <c r="R12" s="44"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="62"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="45"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="63" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="63" t="s">
+      <c r="G13" s="47"/>
+      <c r="H13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="63" t="s">
+      <c r="I13" s="48"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="65"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="63" t="s">
+      <c r="L13" s="48"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="63" t="s">
+      <c r="O13" s="48"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="65"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="63" t="s">
+      <c r="R13" s="48"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="65"/>
-      <c r="V13" s="64"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="47"/>
     </row>
     <row r="14" spans="1:22" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
@@ -9133,7 +9121,7 @@
       <c r="B15" s="9">
         <v>1</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="49" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -9164,7 +9152,7 @@
       <c r="B16" s="9">
         <v>2</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="11" t="s">
         <v>65</v>
       </c>
@@ -9193,7 +9181,7 @@
       <c r="B17" s="9">
         <v>3</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="13" t="s">
         <v>75</v>
       </c>
@@ -9222,7 +9210,7 @@
       <c r="B18" s="9">
         <v>4</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="13" t="s">
         <v>76</v>
       </c>
@@ -9251,7 +9239,7 @@
       <c r="B19" s="9">
         <v>5</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="11" t="s">
         <v>91</v>
       </c>
@@ -9280,7 +9268,7 @@
       <c r="B20" s="9">
         <v>6</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="13" t="s">
         <v>92</v>
       </c>
@@ -9309,7 +9297,7 @@
       <c r="B21" s="9">
         <v>7</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="13" t="s">
         <v>93</v>
       </c>
@@ -10033,15 +10021,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:H3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="Q12:S12"/>
@@ -10052,6 +10031,15 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:H3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <conditionalFormatting sqref="F15:F45 H15:I45 K15:L45 N15:O45 Q15:R45 T15:U45">
     <cfRule type="expression" dxfId="3" priority="4">
